--- a/data/mirendorf growth data.xlsx
+++ b/data/mirendorf growth data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wlperry/Documents/R Projects/INTRO_R_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345FACCE-363D-A243-9739-4E47F0EA6E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE9552E-4CC2-A246-BE75-28517FDE1A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36260" yWindow="-4920" windowWidth="29780" windowHeight="22220" xr2:uid="{65F22FA6-3E15-4B57-A93A-D1AE128F7189}"/>
+    <workbookView xWindow="920" yWindow="760" windowWidth="33640" windowHeight="21580" xr2:uid="{65F22FA6-3E15-4B57-A93A-D1AE128F7189}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -41,78 +41,6 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>RTH1917.29.M1_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.29.M2_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.29.M3_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.30.M1_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.30.M2_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.30.M3_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.31.M1_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.31.M2_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.31.M3_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.32.M1_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.32.M2_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.32.M3_leucine-</t>
-  </si>
-  <si>
-    <t>RTH1917.29.L1_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.29.L2_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.29.L3_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.30.L1_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.30.L2_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.30.L3_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.31.L1_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.31.L2_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.31.L3_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.32.L1_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.32.L2_leucine+</t>
-  </si>
-  <si>
-    <t>RTH1917.32.L3_leucine+</t>
-  </si>
-  <si>
     <t>day_0</t>
   </si>
   <si>
@@ -129,6 +57,78 @@
   </si>
   <si>
     <t>day_113</t>
+  </si>
+  <si>
+    <t>RTH1917.29.M1</t>
+  </si>
+  <si>
+    <t>RTH1917.29.M2</t>
+  </si>
+  <si>
+    <t>RTH1917.29.M3</t>
+  </si>
+  <si>
+    <t>RTH1917.30.M1</t>
+  </si>
+  <si>
+    <t>RTH1917.30.M2</t>
+  </si>
+  <si>
+    <t>RTH1917.30.M3</t>
+  </si>
+  <si>
+    <t>RTH1917.31.M1</t>
+  </si>
+  <si>
+    <t>RTH1917.31.M2</t>
+  </si>
+  <si>
+    <t>RTH1917.31.M3</t>
+  </si>
+  <si>
+    <t>RTH1917.32.M1</t>
+  </si>
+  <si>
+    <t>RTH1917.32.M2</t>
+  </si>
+  <si>
+    <t>RTH1917.32.M3</t>
+  </si>
+  <si>
+    <t>RTH1917.29.L1</t>
+  </si>
+  <si>
+    <t>RTH1917.29.L2</t>
+  </si>
+  <si>
+    <t>RTH1917.29.L3</t>
+  </si>
+  <si>
+    <t>RTH1917.30.L1</t>
+  </si>
+  <si>
+    <t>RTH1917.30.L2</t>
+  </si>
+  <si>
+    <t>RTH1917.30.L3</t>
+  </si>
+  <si>
+    <t>RTH1917.31.L1</t>
+  </si>
+  <si>
+    <t>RTH1917.31.L2</t>
+  </si>
+  <si>
+    <t>RTH1917.31.L3</t>
+  </si>
+  <si>
+    <t>RTH1917.32.L1</t>
+  </si>
+  <si>
+    <t>RTH1917.32.L2</t>
+  </si>
+  <si>
+    <t>RTH1917.32.L3</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,27 +505,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>0</v>
